--- a/data/income_statement/3digits/total/099_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/099_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>099-Support activities for other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>099-Support activities for other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8601.004199999999</v>
@@ -977,19 +883,24 @@
         <v>255875.50113</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>765328.9171800001</v>
+        <v>767194.3850499999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1045636.48633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1059661.29508</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1329061.937</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>8268.258399999999</v>
+        <v>8268.258400000001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>20804.40514</v>
@@ -1016,16 +927,21 @@
         <v>212962.44939</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>637286.9582699999</v>
+        <v>639148.53472</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>942469.73867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>955832.9291999999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1305846.332</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11.40952</v>
@@ -1058,13 +974,18 @@
         <v>93986.15379</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>67722.41993999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>68001.67451000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8424.879000000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>321.33628</v>
@@ -1094,16 +1015,21 @@
         <v>31181.52214</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>34055.80512</v>
+        <v>34059.69654</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>35444.32772000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35826.69137</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>14790.726</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1.99665</v>
@@ -1124,25 +1050,30 @@
         <v>1123.24522</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>93.11712999999999</v>
+        <v>93.11713</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>437.47243</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6517.072169999999</v>
+        <v>6517.07217</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4051.942979999999</v>
+        <v>4051.94298</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1912.62857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1914.72857</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4118.694</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1.99665</v>
@@ -1163,7 +1094,7 @@
         <v>1071.88161</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>92.84412999999999</v>
+        <v>92.84413000000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>343.94739</v>
@@ -1172,16 +1103,21 @@
         <v>6446.23661</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3966.84229</v>
+        <v>3966.842290000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1634.69242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1636.79242</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3083.097</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>53.68994</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1034.167</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1244,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>84.25425999999999</v>
+        <v>84.25426000000002</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>49.75307</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>224.24621</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>8599.00755</v>
@@ -1274,7 +1220,7 @@
         <v>29602.47656</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>56984.82851</v>
+        <v>56984.82851000001</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>66861.53341</v>
@@ -1289,16 +1235,21 @@
         <v>249358.42896</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>761276.9742000001</v>
+        <v>763142.4420700001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1043723.85776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1057746.56651</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1324943.243</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>6550.415410000001</v>
@@ -1319,7 +1270,7 @@
         <v>45712.25434000001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>63680.05145000001</v>
+        <v>63680.05145</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>92475.38117000001</v>
@@ -1328,16 +1279,21 @@
         <v>199595.73677</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>613015.49428</v>
+        <v>615285.79502</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>838969.5434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>850144.3330399999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1041993.634</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2922.81692</v>
@@ -1349,7 +1305,7 @@
         <v>6795.06307</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7058.5247</v>
+        <v>7058.524700000001</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>6238.90316</v>
@@ -1370,13 +1326,18 @@
         <v>33238.84772999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>32124.53138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34500.96691</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>31195.152</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>128.49008</v>
@@ -1406,16 +1367,21 @@
         <v>27724.62594</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>290435.84645</v>
+        <v>290953.94145</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>217309.98307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>221944.20597</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>397099.753</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3499.10841</v>
@@ -1436,25 +1402,30 @@
         <v>30758.18325</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>55484.11519999999</v>
+        <v>55484.1152</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>70017.87801999999</v>
+        <v>70017.87802</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>127395.98504</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>279607.68367</v>
+        <v>281359.88941</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>564643.0089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>568807.14011</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>609507.534</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>24892.02005</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4191.195</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2048.59214</v>
@@ -1520,28 +1496,33 @@
         <v>34655.9995</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>49762.69218999999</v>
+        <v>49762.69219</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>148261.47992</v>
+        <v>147856.64705</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>204754.31436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>207602.23347</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>282949.609</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2287.69085</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4314.84374</v>
+        <v>4314.843739999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8793.211559999998</v>
+        <v>8793.21156</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>14628.85169</v>
@@ -1553,25 +1534,30 @@
         <v>23286.47752</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>21456.9782</v>
+        <v>21457.5782</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>36580.39311</v>
+        <v>36587.01771</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>52529.75256</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>93890.08683</v>
+        <v>94124.98836999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>147329.30007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>149655.9342</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>95870.092</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>260.09224</v>
@@ -1583,7 +1569,7 @@
         <v>2817.63021</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6120.258980000001</v>
+        <v>6120.25898</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>6469.63829</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>30411.09311</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>7461.08</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24.15749</v>
@@ -1619,10 +1610,10 @@
         <v>359.90457</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>692.4532299999998</v>
+        <v>692.45323</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>423.06793</v>
+        <v>423.0679299999999</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>1206.16264</v>
@@ -1634,22 +1625,27 @@
         <v>210.94183</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1040.90664</v>
+        <v>1041.32835</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>6341.9586</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9336.83361</v>
+        <v>9354.614320000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>14926.16937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14962.9883</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>10845.017</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2003.44112</v>
@@ -1658,7 +1654,7 @@
         <v>3225.27659</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5283.12812</v>
+        <v>5283.128119999999</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>8085.524780000001</v>
@@ -1670,25 +1666,30 @@
         <v>15593.1108</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>15354.40668</v>
+        <v>15355.00668</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>24093.44703</v>
+        <v>24099.64992</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>34236.7222</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>65941.8907</v>
+        <v>66159.01153</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>101992.03759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>104281.85279</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>77563.995</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-239.09871</v>
@@ -1703,31 +1704,36 @@
         <v>-4695.49494</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>138.0049700000002</v>
+        <v>138.00497</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>-2137.19845</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-9816.69816</v>
+        <v>-9817.29816</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1924.39361</v>
+        <v>-1931.018209999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-2767.06037</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>54371.39309000001</v>
+        <v>53731.65868000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>57425.01429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>57946.29927</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>187079.517</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>265.48732</v>
@@ -1748,7 +1754,7 @@
         <v>2835.78644</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9896.28133</v>
+        <v>9896.281329999998</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>9440.307919999999</v>
@@ -1757,16 +1763,21 @@
         <v>7628.50947</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>153429.20558</v>
+        <v>153429.98452</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>96355.21208999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>96409.55142999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>404673.292</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>6374.09583</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7670.453</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>18.75458</v>
@@ -1874,16 +1895,21 @@
         <v>931.02424</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>22180.83348</v>
+        <v>22181.55702</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>18351.91177</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>15629.908</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>391.46137</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>441.214</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0.03334</v>
@@ -1994,13 +2030,18 @@
         <v>2997.202</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>101.33861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>104.58261</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>201759.753</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4.032010000000001</v>
@@ -2027,19 +2068,24 @@
         <v>7264.76611</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5463.031190000001</v>
+        <v>5463.03119</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>106653.76907</v>
+        <v>106653.82447</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>50827.58084</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>50830.39126</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>127989.077</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>242.66739</v>
@@ -2147,16 +2203,21 @@
         <v>1229.86201</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8999.544619999999</v>
+        <v>8999.544620000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20308.82367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>20357.10859</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>51182.887</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>241.77247</v>
@@ -2174,7 +2235,7 @@
         <v>11005.82242</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5174.065300000001</v>
+        <v>5174.0653</v>
       </c>
       <c r="I36" s="47" t="n">
         <v>26626.74968</v>
@@ -2186,16 +2247,21 @@
         <v>10511.41462</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>114143.80154</v>
+        <v>114143.98844</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>91427.14549000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>91427.19284</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>148288.653</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2228,13 +2294,18 @@
         <v>12.87027</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>705.49949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>705.4994900000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>119.06</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3346.4737</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>11486.607</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2528.56484</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5.54147</v>
@@ -2342,16 +2423,21 @@
         <v>10005.63393</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>90838.52315000001</v>
+        <v>90838.52314999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>58909.90064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>58909.94284999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>118354.054</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>236.231</v>
@@ -2438,7 +2534,7 @@
         <v>32.38724</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>447.7257300000001</v>
+        <v>447.72573</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>57.99119</v>
@@ -2459,28 +2555,33 @@
         <v>499.57635</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2960.49052</v>
+        <v>2960.67742</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>25936.70682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25936.71196</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>18327.915</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>161.43081</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>668.3755800000001</v>
+        <v>668.37558</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>604.68386</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>940.2748900000001</v>
+        <v>940.27489</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>2477.01242</v>
@@ -2498,28 +2599,33 @@
         <v>3779.05686</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12807.35626</v>
+        <v>12811.49508</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15733.61004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15737.40289</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>20414.42</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>156.66883</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>668.3755800000001</v>
+        <v>668.37558</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>604.68386</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>940.2748900000001</v>
+        <v>940.27489</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>1644.01632</v>
@@ -2534,19 +2640,24 @@
         <v>4478.5379</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3427.47202</v>
+        <v>3427.472020000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>12267.96112</v>
+        <v>12272.09994</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>15722.5749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>15726.36775</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>20413.121</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>4.761979999999999</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>11.03514</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1.299</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-376.8146699999999</v>
@@ -2603,28 +2719,33 @@
         <v>-11114.98508</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-6324.469220000001</v>
+        <v>-6324.46922</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-28772.34562</v>
+        <v>-28772.94562</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-12085.98956</v>
+        <v>-12092.61416</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-9429.022379999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>80849.44087000001</v>
+        <v>80206.15968000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>46619.47084999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>47191.25497</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>423049.736</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>314.21474</v>
@@ -2645,7 +2766,7 @@
         <v>443.72774</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>871.79484</v>
+        <v>871.7948400000001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>920.64444</v>
@@ -2654,16 +2775,21 @@
         <v>1956.64184</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11524.33166</v>
+        <v>11614.79381</v>
       </c>
       <c r="M48" s="47" t="n">
         <v>19970.72982</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>21368.36</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1098.16244</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>114.865</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>314.21474</v>
@@ -2723,7 +2854,7 @@
         <v>443.72774</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>869.92484</v>
+        <v>869.9248400000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>920.64444</v>
@@ -2732,16 +2863,21 @@
         <v>1956.64184</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11517.02472</v>
+        <v>11607.48687</v>
       </c>
       <c r="M50" s="48" t="n">
         <v>18872.56738</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>21253.495</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>341.37566</v>
@@ -2753,7 +2889,7 @@
         <v>12052.87645</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>620.03051</v>
+        <v>620.0305099999999</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>1619.09152</v>
@@ -2771,16 +2907,21 @@
         <v>2035.42362</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>25061.09466</v>
+        <v>25078.22505</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>7823.95289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7859.04684</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24785.208</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6154.98</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>98.47756999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1689.975</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>341.37566</v>
@@ -2888,22 +3039,27 @@
         <v>2028.08616</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>24960.40585</v>
+        <v>24977.53624</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7725.47532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7760.56927</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16940.253</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-403.97559</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-813.25489</v>
+        <v>-813.2548900000002</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-14416.96095</v>
@@ -2915,28 +3071,33 @@
         <v>-12326.22648</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-7845.63871</v>
+        <v>-7845.638709999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-28906.43861</v>
+        <v>-28907.03861</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-12652.37081</v>
+        <v>-12658.99541</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-9507.80416</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>67312.67787</v>
+        <v>66742.72843999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>58766.24778</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>59302.93795</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>419632.888</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>62.45041000000001</v>
@@ -2957,28 +3118,33 @@
         <v>1104.81821</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>598.1558299999999</v>
+        <v>598.15583</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>721.5257800000002</v>
+        <v>721.5257800000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1873.90282</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>24195.02197</v>
+        <v>24218.56378</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>23321.55715</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23365.06387</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69046.84</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-466.426</v>
+        <v>-466.4259999999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-987.9567099999999</v>
@@ -2996,22 +3162,25 @@
         <v>-8950.456920000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-29504.59444</v>
+        <v>-29505.19444</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-13373.89659</v>
+        <v>-13380.52119</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-11381.70698</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>43117.6559</v>
+        <v>42524.16466</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>35444.69063</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>35937.87408</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>350586.048</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>45</v>
@@ -3050,22 +3222,25 @@
         <v>196</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>230</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>278</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>